--- a/VERA-VRAM-Helper.xlsx
+++ b/VERA-VRAM-Helper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/Documents/X16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E9F26D-09F3-6B4B-8ABF-7D0FE030E112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4203515-4F13-1542-B430-E4869FB8B3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="500" windowWidth="34580" windowHeight="21900" xr2:uid="{63542716-13D3-7E4B-8489-D5412AD73AD3}"/>
+    <workbookView xWindow="16660" yWindow="1520" windowWidth="23740" windowHeight="18160" xr2:uid="{63542716-13D3-7E4B-8489-D5412AD73AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
   <si>
     <t>Layer 0</t>
   </si>
@@ -712,10 +712,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20480</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -724,7 +724,7 @@
                   <c:v>63488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>40960</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,10 +961,10 @@
                   <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16384</c:v>
@@ -973,7 +973,7 @@
                   <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,7 +1026,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1085,7 +1085,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1297,10 +1297,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20480</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1309,7 +1309,7 @@
                   <c:v>63488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>40960</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,10 +1546,10 @@
                   <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16384</c:v>
@@ -1558,7 +1558,7 @@
                   <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3239,11 +3239,11 @@
         <v>80</v>
       </c>
       <c r="B4" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="20" t="str">
         <f>VLOOKUP(B4,'Data Validation'!A29:B30,2,FALSE)</f>
-        <v>Disabled</v>
+        <v>Enabled</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3263,11 +3263,11 @@
         <v>82</v>
       </c>
       <c r="B6" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="20" t="str">
         <f>VLOOKUP(B6,'Data Validation'!A29:B30,2,FALSE)</f>
-        <v>Disabled</v>
+        <v>Enabled</v>
       </c>
     </row>
   </sheetData>
@@ -3293,7 +3293,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3340,11 +3340,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP(B4,'Data Validation'!A2:B5,2,FALSE)</f>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E4" s="6">
         <v>32</v>
@@ -3377,11 +3377,11 @@
       </c>
       <c r="B6" s="10">
         <f>D4*D5*2</f>
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>DEC2HEX(B6)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>27</v>
@@ -3428,18 +3428,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>DEC2HEX(B10)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="6">
         <f>MAX_USER_VRAM-B6</f>
-        <v>127424</v>
+        <v>125376</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>13</v>
@@ -3473,11 +3473,11 @@
       </c>
       <c r="B13" s="10">
         <f>B10+B6-1</f>
-        <v>2047</v>
+        <v>20479</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>DEC2HEX(B13)</f>
-        <v>7FF</v>
+        <v>4FFF</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>51</v>
@@ -3488,11 +3488,11 @@
         <v>28</v>
       </c>
       <c r="B14" s="9">
-        <v>4096</v>
+        <v>20480</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>DEC2HEX(B14)</f>
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3519,11 +3519,11 @@
       </c>
       <c r="B17" s="10">
         <f>B14+B25-1</f>
-        <v>4095</v>
+        <v>22527</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>DEC2HEX(B17)</f>
-        <v>FFF</v>
+        <v>57FF</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="9">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B25" s="10">
         <f>B24*B22</f>
-        <v>0</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3652,8 +3652,8 @@
       <c r="A33" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>78</v>
+      <c r="B33" s="13">
+        <v>4000</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B34" s="15">
         <f>HEX2DEC(B33)</f>
-        <v>65535</v>
+        <v>16384</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4449,11 +4449,11 @@
       </c>
       <c r="B6">
         <f>IF(Info!B6=1,'Layer 0'!B10,0)</f>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="C6">
         <f>IF(Info!B6=1,'Layer 0'!B6,0)</f>
-        <v>0</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4462,11 +4462,11 @@
       </c>
       <c r="B7">
         <f>IF(Info!B6=1,'Layer 0'!B14,0)</f>
-        <v>0</v>
+        <v>20480</v>
       </c>
       <c r="C7">
         <f>IF(Info!B6=1,'Layer 0'!B25,0)</f>
-        <v>0</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4501,11 +4501,11 @@
       </c>
       <c r="B10">
         <f>IF(Info!B4=1,Sprites!B12,0)</f>
-        <v>0</v>
+        <v>40960</v>
       </c>
       <c r="C10">
         <f>IF(Info!B4=1,Sprites!B11,0)</f>
-        <v>0</v>
+        <v>4096</v>
       </c>
     </row>
   </sheetData>
